--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2625721.387856334</v>
+        <v>2754069.402716384</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526077</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577129</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5372394.549374143</v>
+        <v>5675703.761282232</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>179.5768964681138</v>
       </c>
       <c r="Y2" t="n">
-        <v>82.77087525591705</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +822,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>42.18515664900163</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -868,22 +870,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>232.7403423833642</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>393.8132373742819</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>193.7237604659992</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>83.82457876590577</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1111,7 +1113,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>162.242864170727</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1120,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>142.6892461777148</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>46.93907536729473</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1296,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>40.71429044498935</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>84.45934730604885</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1376,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536213</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396354</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
-        <v>251.7932380089499</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,16 +1581,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>138.4605222694416</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>206.6816267311641</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1616,16 +1618,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1660,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>165.5089183776688</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.1661412847421</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1771,13 +1773,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>12.06219323947358</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1828,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1844,7 +1846,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2017,7 +2019,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>18.38766003735338</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>157.8792784570962</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2141,7 +2143,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>104.5688545685936</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>151.0440288838516</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2476,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2487,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>133.1256102132203</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2536,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>15.32857561554587</v>
       </c>
     </row>
     <row r="26">
@@ -2722,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>117.0382651951622</v>
+        <v>131.9951201220389</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2852,7 +2854,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>46.19803402753018</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3007,7 +3009,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3196,10 +3198,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>57.74559078764125</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>127.3780140126816</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3272,19 +3274,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3430,19 +3432,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>88.22435918092195</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>274.372971193527</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3509,19 +3511,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407062</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3667,10 +3669,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>99.86585609575503</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -3715,19 +3717,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>32.2084156885857</v>
       </c>
     </row>
     <row r="41">
@@ -3749,13 +3751,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>200.9947808855314</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3898,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3910,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>154.1156291734915</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.4506844013246</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3989,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4037,13 +4039,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>277.2037768700492</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>36.12736168857049</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>150.1330858937262</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4201,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1334.464719255012</v>
+        <v>860.9393037881885</v>
       </c>
       <c r="C2" t="n">
-        <v>1311.604393308716</v>
+        <v>838.0789778418927</v>
       </c>
       <c r="D2" t="n">
-        <v>1292.35217653412</v>
+        <v>818.826761067297</v>
       </c>
       <c r="E2" t="n">
-        <v>866.3752366819779</v>
+        <v>796.8902252555586</v>
       </c>
       <c r="F2" t="n">
-        <v>441.2510548713781</v>
+        <v>371.7660434449588</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>371.4673850748114</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>73.59900654884626</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>517.6410595347463</v>
       </c>
       <c r="L2" t="n">
-        <v>475.2419029331441</v>
+        <v>517.6410595347463</v>
       </c>
       <c r="M2" t="n">
-        <v>932.027809635875</v>
+        <v>859.6725812491138</v>
       </c>
       <c r="N2" t="n">
-        <v>1388.813716338606</v>
+        <v>859.6725812491138</v>
       </c>
       <c r="O2" t="n">
-        <v>1845.599623041337</v>
+        <v>1338.611505491543</v>
       </c>
       <c r="P2" t="n">
-        <v>1845.599623041337</v>
+        <v>1817.550429733971</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1817.550429733971</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1714.181193660507</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1455.82628425692</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041337</v>
+        <v>1455.82628425692</v>
       </c>
       <c r="W2" t="n">
-        <v>1845.599623041337</v>
+        <v>1059.434934557266</v>
       </c>
       <c r="X2" t="n">
-        <v>1433.879624209084</v>
+        <v>878.0441300440201</v>
       </c>
       <c r="Y2" t="n">
-        <v>1350.272679506138</v>
+        <v>876.7472640393145</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000789</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>46.14877825422932</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273854</v>
+        <v>46.14877825422932</v>
       </c>
       <c r="K3" t="n">
-        <v>44.35863542273854</v>
+        <v>525.0877024966582</v>
       </c>
       <c r="L3" t="n">
-        <v>44.35863542273854</v>
+        <v>525.0877024966582</v>
       </c>
       <c r="M3" t="n">
-        <v>501.1445421254694</v>
+        <v>525.0877024966582</v>
       </c>
       <c r="N3" t="n">
-        <v>957.9304488282003</v>
+        <v>525.0877024966582</v>
       </c>
       <c r="O3" t="n">
-        <v>1414.716355530931</v>
+        <v>822.2860546829158</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956634</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>847.0463416102043</v>
+        <v>958.566484943325</v>
       </c>
       <c r="C4" t="n">
-        <v>675.0737784891203</v>
+        <v>786.593921822241</v>
       </c>
       <c r="D4" t="n">
-        <v>511.757005615891</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>345.5487997687445</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>345.5487997687445</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>179.2918300629767</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>96.1934635164755</v>
       </c>
       <c r="K4" t="n">
-        <v>36.91199246082674</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>391.6013137552475</v>
+        <v>393.4019879271611</v>
       </c>
       <c r="M4" t="n">
-        <v>782.7871087254983</v>
+        <v>784.5877828974119</v>
       </c>
       <c r="N4" t="n">
-        <v>1160.278619601534</v>
+        <v>1162.079293773448</v>
       </c>
       <c r="O4" t="n">
-        <v>1515.706748281297</v>
+        <v>1517.507422453211</v>
       </c>
       <c r="P4" t="n">
-        <v>1806.305960203198</v>
+        <v>1808.106634375112</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303047</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1717.933103822182</v>
       </c>
       <c r="T4" t="n">
-        <v>1628.425962247645</v>
+        <v>1482.841848889491</v>
       </c>
       <c r="U4" t="n">
-        <v>1348.241513747949</v>
+        <v>1482.841848889491</v>
       </c>
       <c r="V4" t="n">
-        <v>1348.241513747949</v>
+        <v>1201.13038149752</v>
       </c>
       <c r="W4" t="n">
-        <v>1073.389109920462</v>
+        <v>1201.13038149752</v>
       </c>
       <c r="X4" t="n">
-        <v>1073.389109920462</v>
+        <v>958.566484943325</v>
       </c>
       <c r="Y4" t="n">
-        <v>847.0463416102043</v>
+        <v>958.566484943325</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>526.3839111742037</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C5" t="n">
-        <v>503.5235852279079</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>484.2713684533122</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>462.3348326415738</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>37.21065083097405</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>399.5154512777223</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>399.5154512777223</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>399.5154512777223</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N5" t="n">
-        <v>815.1719019525203</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O5" t="n">
-        <v>815.1719019525203</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1741.232328914477</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1741.232328914477</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W5" t="n">
-        <v>1741.232328914477</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="X5" t="n">
-        <v>1329.512330082224</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y5" t="n">
-        <v>924.1750600371148</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>36.9119924608267</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>308.6094817404178</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>393.2225928484409</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L6" t="n">
-        <v>850.0084995511718</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="M6" t="n">
-        <v>1306.794406253903</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="N6" t="n">
-        <v>1763.580312956634</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="O6" t="n">
-        <v>1763.580312956634</v>
+        <v>1703.941472964474</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>280.4768292123964</v>
+        <v>458.7432593109778</v>
       </c>
       <c r="C7" t="n">
-        <v>280.4768292123964</v>
+        <v>374.0719676282447</v>
       </c>
       <c r="D7" t="n">
-        <v>280.4768292123964</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="E7" t="n">
-        <v>280.4768292123964</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="F7" t="n">
-        <v>280.4768292123964</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1444.297549031529</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.464575560472</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1432.125227786372</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.940779286676</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>988.0590983061438</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>713.2066944786569</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X7" t="n">
-        <v>470.6427979244621</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y7" t="n">
-        <v>470.6427979244621</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1773.401994551945</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="C8" t="n">
-        <v>1346.501264565245</v>
+        <v>843.8750675988227</v>
       </c>
       <c r="D8" t="n">
-        <v>923.2086437502451</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E8" t="n">
-        <v>901.2721079385067</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F8" t="n">
-        <v>476.1479261279069</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>36.91199246082674</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>357.6855680512415</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>814.4714747539724</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O8" t="n">
-        <v>1271.257381456703</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1798.186415599625</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1798.186415599625</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1798.186415599625</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1798.186415599625</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1798.186415599625</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1790.506820807776</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y8" t="n">
-        <v>1789.209954803071</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273854</v>
+        <v>687.9211111614576</v>
       </c>
       <c r="K9" t="n">
-        <v>44.35863542273854</v>
+        <v>1238.586646145896</v>
       </c>
       <c r="L9" t="n">
-        <v>475.2419029331441</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="M9" t="n">
-        <v>932.027809635875</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="N9" t="n">
-        <v>1388.813716338606</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>308.6531238416347</v>
+        <v>689.792035382553</v>
       </c>
       <c r="C10" t="n">
-        <v>136.6805607205508</v>
+        <v>517.8194722614689</v>
       </c>
       <c r="D10" t="n">
-        <v>136.6805607205508</v>
+        <v>354.5026993882396</v>
       </c>
       <c r="E10" t="n">
-        <v>136.6805607205508</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="F10" t="n">
-        <v>136.6805607205508</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G10" t="n">
-        <v>136.6805607205508</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>94.40332068498475</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1804.474077137307</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1524.289628637611</v>
+        <v>1679.085771868272</v>
       </c>
       <c r="V10" t="n">
-        <v>1242.57816124564</v>
+        <v>1397.3743044763</v>
       </c>
       <c r="W10" t="n">
-        <v>967.7257574181533</v>
+        <v>1122.521900648813</v>
       </c>
       <c r="X10" t="n">
-        <v>725.1618608639584</v>
+        <v>879.9580040946187</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.8190925537004</v>
+        <v>879.9580040946187</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2213.014655894522</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1786.113925907822</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1362.821305092822</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>936.8443652406795</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>511.7201834300797</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G11" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I11" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>340.7313251667144</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>1056.239633142214</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1056.239633142214</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>1056.239633142214</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>1953.232223959332</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O11" t="n">
-        <v>2798.376874110144</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P11" t="n">
-        <v>3506.656153268072</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268072</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149975</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023115</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3298.919623067748</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3298.919623067748</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3298.919623067748</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3298.919623067748</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2887.199624235496</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2632.863020186051</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944547</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119595</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272445</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001817</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G12" t="n">
-        <v>125.8603430006899</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H12" t="n">
-        <v>72.4842497629995</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I12" t="n">
-        <v>72.4842497629995</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J12" t="n">
-        <v>344.1817390425906</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="K12" t="n">
-        <v>344.1817390425906</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="L12" t="n">
-        <v>344.1817390425906</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="M12" t="n">
-        <v>344.1817390425906</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="N12" t="n">
-        <v>1241.174329859709</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="O12" t="n">
-        <v>1799.152570258806</v>
+        <v>4398.937953252929</v>
       </c>
       <c r="P12" t="n">
-        <v>1799.152570258806</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q12" t="n">
-        <v>1799.152570258806</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X12" t="n">
-        <v>908.227638861225</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145174</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>659.8834238610928</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C13" t="n">
-        <v>487.9108607400087</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D13" t="n">
-        <v>487.9108607400087</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E13" t="n">
-        <v>487.9108607400087</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F13" t="n">
-        <v>316.0490865145691</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G13" t="n">
-        <v>316.0490865145691</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>172.2528180227235</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2082.762229695263</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>2082.762229695263</v>
+        <v>1972.721579934615</v>
       </c>
       <c r="U13" t="n">
-        <v>1802.577781195567</v>
+        <v>1692.53713143492</v>
       </c>
       <c r="V13" t="n">
-        <v>1593.808461265098</v>
+        <v>1410.825664042949</v>
       </c>
       <c r="W13" t="n">
-        <v>1318.956057437611</v>
+        <v>1410.825664042949</v>
       </c>
       <c r="X13" t="n">
-        <v>1076.392160883416</v>
+        <v>1168.261767488754</v>
       </c>
       <c r="Y13" t="n">
-        <v>850.0493925731585</v>
+        <v>941.9189991784958</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2178.117784637993</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>1751.217054651293</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1327.924433836293</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>901.9474939841507</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>476.8233121735509</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>72.4842497629995</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>72.4842497629995</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>72.4842497629995</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>787.9925577384986</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1684.985148555617</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2581.977739372736</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3478.970330189854</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3478.970330189854</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>3478.970330189854</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.212488149974</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149974</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3519.845194023115</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3519.845194023115</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3519.845194023115</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3162.355779149364</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2995.175053515355</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2583.455054683102</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2178.117784637993</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944547</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119595</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272445</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001817</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>72.4842497629995</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="K15" t="n">
-        <v>72.4842497629995</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="L15" t="n">
-        <v>72.4842497629995</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="M15" t="n">
-        <v>969.4768405801182</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N15" t="n">
-        <v>991.6906023320375</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O15" t="n">
-        <v>1881.171880343509</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P15" t="n">
-        <v>1881.171880343509</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.227638861225</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145174</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>407.7735857573128</v>
+        <v>615.9842888225141</v>
       </c>
       <c r="C16" t="n">
-        <v>235.8010226362288</v>
+        <v>444.0117257014301</v>
       </c>
       <c r="D16" t="n">
-        <v>72.4842497629995</v>
+        <v>280.6949528282008</v>
       </c>
       <c r="E16" t="n">
-        <v>72.4842497629995</v>
+        <v>114.4867469810544</v>
       </c>
       <c r="F16" t="n">
-        <v>72.4842497629995</v>
+        <v>114.4867469810544</v>
       </c>
       <c r="G16" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.858663863301</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2035.723616382436</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>1792.384268608336</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1512.19982010864</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1230.488352716669</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>955.6359488891819</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X16" t="n">
-        <v>713.072052334987</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y16" t="n">
-        <v>486.7292840247291</v>
+        <v>806.1502575345799</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,10 +5503,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5516,22 +5518,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5549,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5594,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>184.7102578919605</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.79262694784</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N18" t="n">
-        <v>1194.79262694784</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>855.9588572096898</v>
+        <v>896.9441885421152</v>
       </c>
       <c r="C19" t="n">
-        <v>683.9862940886057</v>
+        <v>724.9716254210311</v>
       </c>
       <c r="D19" t="n">
-        <v>683.9862940886057</v>
+        <v>724.9716254210311</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>558.7634195738847</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>386.9016453484451</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>220.6446756426772</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5698,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U19" t="n">
-        <v>1759.191944545161</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="V19" t="n">
-        <v>1599.71792590163</v>
+        <v>1830.869225946121</v>
       </c>
       <c r="W19" t="n">
-        <v>1324.865522074143</v>
+        <v>1556.016822118634</v>
       </c>
       <c r="X19" t="n">
-        <v>1082.301625519948</v>
+        <v>1313.452925564439</v>
       </c>
       <c r="Y19" t="n">
-        <v>855.9588572096898</v>
+        <v>1087.110157254181</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,43 +5752,43 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>1040.608704104281</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1970.233751723557</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2974.519853142615</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O20" t="n">
-        <v>4541.493855905341</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
         <v>3777.607131232208</v>
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>381.4468456473314</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>381.4468456473314</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="N21" t="n">
-        <v>1194.79262694784</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1019.226866224298</v>
+        <v>961.5351989759104</v>
       </c>
       <c r="C22" t="n">
-        <v>847.2543031032135</v>
+        <v>789.5626358548263</v>
       </c>
       <c r="D22" t="n">
-        <v>683.9375302299842</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E22" t="n">
-        <v>517.7293243828377</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F22" t="n">
         <v>345.8675501573982</v>
@@ -5908,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>2112.580693338092</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U22" t="n">
-        <v>2112.580693338092</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V22" t="n">
-        <v>1830.869225946121</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W22" t="n">
-        <v>1678.299499800816</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="X22" t="n">
-        <v>1435.735603246621</v>
+        <v>1187.877967286168</v>
       </c>
       <c r="Y22" t="n">
-        <v>1209.392834936363</v>
+        <v>961.5351989759104</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2988.069926596602</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C24" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D24" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E24" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F24" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G24" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M24" t="n">
-        <v>105.4776804749704</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N24" t="n">
-        <v>1194.79262694784</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S24" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T24" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U24" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V24" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W24" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X24" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y24" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>818.4078435766714</v>
+        <v>584.2797508659046</v>
       </c>
       <c r="C25" t="n">
-        <v>818.4078435766714</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="D25" t="n">
-        <v>818.4078435766714</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E25" t="n">
-        <v>652.199637729525</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F25" t="n">
-        <v>480.3378635040854</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6172,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1477.48047715319</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1234.916580598995</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>1008.573812288737</v>
+        <v>774.4457195779703</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6300,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L27" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M27" t="n">
-        <v>730.647150085061</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>770.0572249530562</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>598.0846618319722</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>434.7678889587429</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>268.5596831115964</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6412,22 +6414,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U28" t="n">
-        <v>1703.982262357062</v>
+        <v>1932.213675861589</v>
       </c>
       <c r="V28" t="n">
-        <v>1703.982262357062</v>
+        <v>1650.502208469618</v>
       </c>
       <c r="W28" t="n">
-        <v>1429.129858529575</v>
+        <v>1375.649804642131</v>
       </c>
       <c r="X28" t="n">
-        <v>1186.56596197538</v>
+        <v>1375.649804642131</v>
       </c>
       <c r="Y28" t="n">
-        <v>960.2231936651219</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,40 +6451,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>338.650469582768</v>
       </c>
       <c r="K29" t="n">
-        <v>651.5495334576516</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L29" t="n">
-        <v>1581.174581076928</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6497,7 +6499,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
         <v>3777.607131232208</v>
@@ -6549,16 +6551,16 @@
         <v>939.1015214887346</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446.1370507523521</v>
+        <v>825.2669071411556</v>
       </c>
       <c r="C31" t="n">
-        <v>274.1644876312681</v>
+        <v>653.2943440200715</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>653.2943440200715</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>487.0861381729251</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>315.2243639474855</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>148.9673942417176</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>148.9673942417176</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.958004048024</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1661.773555548329</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>1380.062088156358</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.20968432887</v>
+        <v>1484.339540717674</v>
       </c>
       <c r="X31" t="n">
-        <v>862.6457877746757</v>
+        <v>1241.775644163479</v>
       </c>
       <c r="Y31" t="n">
-        <v>636.3030194644177</v>
+        <v>1015.432875853221</v>
       </c>
     </row>
     <row r="32">
@@ -6716,10 +6718,10 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6780,16 +6782,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.72140846125</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>733.72140846125</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D34" t="n">
-        <v>570.4046355880207</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E34" t="n">
-        <v>404.1964297408742</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F34" t="n">
-        <v>404.1964297408742</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
         <v>345.8675501573982</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1759.191944545161</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V34" t="n">
-        <v>1477.48047715319</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.628073325703</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="X34" t="n">
-        <v>960.064176771508</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="Y34" t="n">
-        <v>733.72140846125</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
         <v>5115.135670291427</v>
@@ -6971,13 +6973,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7014,28 +7016,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>939.4897558901635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O36" t="n">
-        <v>1828.971033901635</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1008.573812288737</v>
+        <v>1019.275630082919</v>
       </c>
       <c r="C37" t="n">
-        <v>836.6012491676531</v>
+        <v>847.303066961835</v>
       </c>
       <c r="D37" t="n">
-        <v>673.2844762944238</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E37" t="n">
-        <v>507.0762704472774</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>335.2144962218377</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>335.2144962218377</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>191.4182277299921</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T37" t="n">
-        <v>2039.376393044857</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U37" t="n">
-        <v>1759.191944545161</v>
+        <v>1955.492679006434</v>
       </c>
       <c r="V37" t="n">
-        <v>1477.48047715319</v>
+        <v>1678.348263659437</v>
       </c>
       <c r="W37" t="n">
-        <v>1477.48047715319</v>
+        <v>1678.348263659437</v>
       </c>
       <c r="X37" t="n">
-        <v>1234.916580598995</v>
+        <v>1435.784367105243</v>
       </c>
       <c r="Y37" t="n">
-        <v>1008.573812288737</v>
+        <v>1209.441598794985</v>
       </c>
     </row>
     <row r="38">
@@ -7148,73 +7150,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>903.7433331113961</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1833.368380730673</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N38" t="n">
-        <v>3813.905540636431</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O38" t="n">
-        <v>4659.050190787243</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787243</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7248,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>946.5481644506465</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M39" t="n">
-        <v>946.5481644506465</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N39" t="n">
-        <v>1194.79262694784</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O39" t="n">
-        <v>1194.79262694784</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.150232199843</v>
+        <v>847.4138558574795</v>
       </c>
       <c r="C40" t="n">
-        <v>948.1776690787592</v>
+        <v>675.4412927363954</v>
       </c>
       <c r="D40" t="n">
-        <v>784.8608962055299</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
         <v>345.8675501573982</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7363,19 +7365,19 @@
         <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V40" t="n">
-        <v>1589.056897064296</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W40" t="n">
-        <v>1589.056897064296</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X40" t="n">
-        <v>1346.493000510101</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y40" t="n">
-        <v>1120.150232199843</v>
+        <v>1037.579824569545</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1787.890474083922</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>1360.989744097222</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>937.697123282222</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>511.7201834300796</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>511.7201834300796</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>72.48424976299947</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>72.48424976299947</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>72.48424976299947</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>969.4768405801178</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>1866.469431397236</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O41" t="n">
-        <v>2711.614081548048</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P41" t="n">
-        <v>3168.12700864579</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.212488149974</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149974</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149974</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3421.187456952467</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3421.187456952467</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3421.187456952467</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3024.796107252814</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2613.076108420561</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2207.738838375451</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944547</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119595</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272445</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001817</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>79.9308927249113</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>79.9308927249113</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>670.4158192932509</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L42" t="n">
-        <v>1507.214627376157</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M42" t="n">
-        <v>1507.214627376157</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N42" t="n">
-        <v>1881.171880343509</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O42" t="n">
-        <v>1881.171880343509</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P42" t="n">
-        <v>1881.171880343509</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.227638861225</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145174</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>573.8710027088148</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C43" t="n">
-        <v>573.8710027088148</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D43" t="n">
-        <v>410.5542298355855</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E43" t="n">
-        <v>244.346023988439</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F43" t="n">
-        <v>72.48424976299947</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G43" t="n">
-        <v>72.48424976299947</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48424976299947</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.858663863301</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2035.723616382436</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.723616382436</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.53916788274</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V43" t="n">
-        <v>1473.827700490769</v>
+        <v>1757.664925652886</v>
       </c>
       <c r="W43" t="n">
-        <v>1198.975296663282</v>
+        <v>1757.664925652886</v>
       </c>
       <c r="X43" t="n">
-        <v>956.4114001090871</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y43" t="n">
-        <v>764.0369714208805</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2087.590413605487</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>1660.689683618787</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>809.5885619560448</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.087708579895</v>
+        <v>338.650469582768</v>
       </c>
       <c r="K44" t="n">
-        <v>1150.596016555394</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L44" t="n">
-        <v>2047.588607372512</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M44" t="n">
-        <v>2047.588607372512</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N44" t="n">
-        <v>2661.511503117259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>3506.656153268071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>3506.656153268071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268071</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149974</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3624.212488149974</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3403.286917194607</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3144.932007791019</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2787.442592917268</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2507.438777897017</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2507.438777897017</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2507.438777897017</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944547</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119595</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272445</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001817</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>72.48424976299947</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>72.48424976299947</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>72.48424976299947</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L45" t="n">
-        <v>72.48424976299947</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="M45" t="n">
-        <v>72.48424976299947</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="N45" t="n">
-        <v>193.4735752088363</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O45" t="n">
-        <v>1082.954853220308</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P45" t="n">
-        <v>1799.152570258806</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.227638861225</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145174</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>388.2530813759291</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C46" t="n">
-        <v>216.2805182548451</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="D46" t="n">
-        <v>216.2805182548451</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E46" t="n">
-        <v>216.2805182548451</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F46" t="n">
-        <v>216.2805182548451</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G46" t="n">
-        <v>216.2805182548451</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H46" t="n">
-        <v>72.48424976299947</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2035.723616382436</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>1884.074034671601</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U46" t="n">
-        <v>1603.889586171906</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V46" t="n">
-        <v>1322.178118779934</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W46" t="n">
-        <v>1047.325714952447</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X46" t="n">
-        <v>804.7618183982527</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y46" t="n">
-        <v>578.4190500879947</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487778</v>
       </c>
       <c r="L2" t="n">
-        <v>481.069527758196</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>382.9176484695</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>521.1676505099927</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641999</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8060,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873018</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>323.3722454659168</v>
       </c>
       <c r="P3" t="n">
-        <v>374.1586769883665</v>
+        <v>505.5475323587972</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8134,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>93.31363181979052</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.31013128815742</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>457.1346235160602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>107.8670228313365</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>172.5227428869331</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8386,13 +8388,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>134.3202603144915</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,22 +8455,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>361.4449756170225</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>452.289812307084</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>457.7507104621139</v>
+        <v>467.1209648647327</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8611,10 +8613,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>361.8093214193388</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8629,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>300.3766013075208</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>943.3327448719398</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>625.4779643536372</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8778,19 +8780,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>927.3961502510354</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>586.7862739637339</v>
+        <v>852.2551465529489</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701165</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369254</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719397</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q14" t="n">
-        <v>182.8339250693658</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9003,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>278.4163741766268</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9012,19 +9014,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>929.1499025498216</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>43.78117139729861</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9164,13 +9166,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>398.9108788555778</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>362.1014486857561</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9240,25 +9242,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>105.6391777587192</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>852.180037343056</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9401,7 +9403,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>617.2823097660786</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9413,16 +9415,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>492.8628464086323</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>23.48893647336718</v>
       </c>
       <c r="N21" t="n">
-        <v>842.9044234665809</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9644,19 +9646,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>924.3306556055956</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9723,7 +9725,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>26.3038179559056</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9732,7 +9734,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9884,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>370.4410136063929</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
@@ -9960,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>383.3462223301476</v>
+        <v>467.7720854276179</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>268.1550667350203</v>
       </c>
       <c r="K29" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10121,7 +10123,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10130,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,19 +10199,19 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>106.3367244377138</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>534.642907502631</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>218.8019602116015</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,19 +10430,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>152.7047407943309</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10598,10 +10600,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622221</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10662,7 +10664,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
@@ -10674,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>592.5445971072223</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>479.0344602783164</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10832,7 +10834,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>743.9259979858332</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10908,22 +10910,22 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>921.9548738586921</v>
       </c>
       <c r="N39" t="n">
-        <v>272.0950105339394</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369252</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719394</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>498.6995305958291</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>299.9167405677024</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>399.077627170463</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>268.1550667350203</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701163</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>657.4037599503514</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11370,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>117.3609790173131</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>143.5544680578213</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>149.4906593357087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>102.4454320269174</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>72.21272598688731</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>226.9185178249877</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>110.0981677402029</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>152.5322067692366</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>123.9706457695738</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>121.0150742609552</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>57.11475057590339</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>121.0598509053605</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>31.46878979548993</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>208.7507650116095</v>
       </c>
     </row>
     <row r="26">
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>160.3443388195366</v>
+        <v>145.3874838926598</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24846,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>52.57284854959661</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>106.8488092210689</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>112.7602435759713</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>10.54652339620483</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>4.521381524524372</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>64.68026769291994</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>191.8709249385697</v>
       </c>
     </row>
     <row r="41">
@@ -25637,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>17.72153436028179</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>86.02262841516139</v>
       </c>
       <c r="Y43" t="n">
-        <v>33.62865622583081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>115.2236593326073</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>134.1254758013027</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>90.77286840263278</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481993.7457957525</v>
+        <v>482911.6731765383</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481993.7457957525</v>
+        <v>485883.7206555363</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481993.7457957525</v>
+        <v>485883.7206555363</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>391855.9491580501</v>
+        <v>492838.0160234579</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>391855.9491580501</v>
+        <v>492838.0160234579</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>492838.0160234578</v>
+        <v>492838.0160234579</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>391855.9491580501</v>
+        <v>492838.0160234579</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>391855.9491580501</v>
+        <v>492838.0160234578</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>567881.601310884</v>
+        <v>567881.6013108839</v>
       </c>
       <c r="C2" t="n">
-        <v>567881.601310884</v>
+        <v>567881.6013108838</v>
       </c>
       <c r="D2" t="n">
-        <v>567881.6013108842</v>
+        <v>567881.6013108841</v>
       </c>
       <c r="E2" t="n">
-        <v>435717.2692283596</v>
+        <v>547979.6430590109</v>
       </c>
       <c r="F2" t="n">
-        <v>435717.2692283596</v>
+        <v>547979.6430590111</v>
       </c>
       <c r="G2" t="n">
-        <v>547979.6430590106</v>
+        <v>547979.6430590107</v>
       </c>
       <c r="H2" t="n">
         <v>547979.6430590106</v>
       </c>
       <c r="I2" t="n">
-        <v>547979.6430590107</v>
+        <v>547979.643059011</v>
       </c>
       <c r="J2" t="n">
-        <v>547979.6430590111</v>
+        <v>547979.6430590109</v>
       </c>
       <c r="K2" t="n">
-        <v>547979.6430590107</v>
+        <v>547979.643059011</v>
       </c>
       <c r="L2" t="n">
         <v>547979.643059011</v>
       </c>
       <c r="M2" t="n">
-        <v>547979.6430590105</v>
+        <v>547979.6430590107</v>
       </c>
       <c r="N2" t="n">
+        <v>547979.6430590106</v>
+      </c>
+      <c r="O2" t="n">
+        <v>547979.6430590111</v>
+      </c>
+      <c r="P2" t="n">
         <v>547979.6430590109</v>
-      </c>
-      <c r="O2" t="n">
-        <v>435717.2692283597</v>
-      </c>
-      <c r="P2" t="n">
-        <v>435717.2692283596</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695914</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361206</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096017</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.92009431</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802889</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701967</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091333</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191810.9398986468</v>
+        <v>187607.6695456099</v>
       </c>
       <c r="C4" t="n">
-        <v>191810.9398986468</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="D4" t="n">
-        <v>191810.9398986469</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="E4" t="n">
-        <v>46140.42348557885</v>
+        <v>58064.51385187962</v>
       </c>
       <c r="F4" t="n">
-        <v>46140.42348557885</v>
+        <v>58064.5138518796</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.5138518796</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187959</v>
       </c>
       <c r="I4" t="n">
         <v>58064.51385187964</v>
@@ -26442,22 +26444,22 @@
         <v>58064.51385187964</v>
       </c>
       <c r="K4" t="n">
-        <v>58064.51385187959</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="L4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
+        <v>58064.51385187959</v>
+      </c>
+      <c r="N4" t="n">
+        <v>58064.51385187959</v>
+      </c>
+      <c r="O4" t="n">
+        <v>58064.51385187965</v>
+      </c>
+      <c r="P4" t="n">
         <v>58064.51385187964</v>
-      </c>
-      <c r="N4" t="n">
-        <v>58064.51385187964</v>
-      </c>
-      <c r="O4" t="n">
-        <v>46140.42348557885</v>
-      </c>
-      <c r="P4" t="n">
-        <v>46140.42348557885</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216128</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987962</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987961</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26503,13 +26505,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987959</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987959</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159764.2265238883</v>
+        <v>155108.0128735213</v>
       </c>
       <c r="C6" t="n">
-        <v>314389.9471420088</v>
+        <v>303030.1143206658</v>
       </c>
       <c r="D6" t="n">
-        <v>314389.947142009</v>
+        <v>326436.9479942782</v>
       </c>
       <c r="E6" t="n">
-        <v>201725.1479132994</v>
+        <v>196425.710462061</v>
       </c>
       <c r="F6" t="n">
-        <v>334488.8159229012</v>
+        <v>412165.0670187018</v>
       </c>
       <c r="G6" t="n">
-        <v>310005.1469243913</v>
+        <v>412165.0670187015</v>
       </c>
       <c r="H6" t="n">
         <v>412165.0670187013</v>
       </c>
       <c r="I6" t="n">
-        <v>412165.0670187014</v>
+        <v>412165.0670187016</v>
       </c>
       <c r="J6" t="n">
-        <v>291442.5500759449</v>
+        <v>285587.7984384126</v>
       </c>
       <c r="K6" t="n">
-        <v>412165.0670187015</v>
+        <v>393518.466661682</v>
       </c>
       <c r="L6" t="n">
         <v>412165.0670187016</v>
       </c>
       <c r="M6" t="n">
-        <v>301355.7069095679</v>
+        <v>232101.1955635338</v>
       </c>
       <c r="N6" t="n">
-        <v>412165.0670187016</v>
+        <v>412165.0670187013</v>
       </c>
       <c r="O6" t="n">
-        <v>334488.8159229013</v>
+        <v>412165.0670187018</v>
       </c>
       <c r="P6" t="n">
-        <v>334488.8159229012</v>
+        <v>412165.0670187015</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539685</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374937</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374936</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374934</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374934</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539685</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162563</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771595</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353632</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539685</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162563</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771595</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539685</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162563</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771595</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353632</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>228.0259023758164</v>
       </c>
       <c r="Y2" t="n">
-        <v>318.5130220887415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>100.1731491579255</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>8.165611912994848</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.8366432743328</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>198.7036757366573</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>86.42825872396737</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -27786,13 +27788,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>116.6514885473244</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>279.942476509118</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>56.38454581829627</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -27916,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -28026,10 +28028,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>200.1916638513696</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>192.9232567086499</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -29572,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539685</v>
       </c>
       <c r="L2" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>345.4863855700682</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539685</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539685</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539685</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>300.2003557436946</v>
       </c>
       <c r="P3" t="n">
-        <v>352.3878357835378</v>
+        <v>483.7766911539685</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>71.39487192408929</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.69056852337247</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>419.8550006816142</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>85.46778899800317</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>150.7519016821045</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35106,13 +35108,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>111.8210728160671</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>415.010189472638</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>435.2356237478844</v>
+        <v>444.6058781505031</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35331,10 +35333,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8905615236376</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35349,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>270.9566418219343</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374937</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35498,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>906.0531220374937</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>563.6143842415117</v>
+        <v>829.0832568307267</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374936</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374936</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374936</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q14" t="n">
-        <v>146.7092504647677</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>906.0531220374936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>22.43814318375695</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>361.4796159561459</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>324.5260868755248</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>83.23994392538583</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>829.083256830728</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>581.5177089712693</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36133,16 +36135,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>455.4718870526082</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.3921559610391957</v>
       </c>
       <c r="N21" t="n">
-        <v>821.5613952530392</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36364,19 +36366,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>886.8993927061638</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>3.207037443577619</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36452,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36604,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>333.1613907719469</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>360.2494418178196</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>238.7351072494338</v>
       </c>
       <c r="K29" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36841,7 +36843,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36850,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>512.8720662978023</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>181.2265984013702</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>130.1896540801013</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37318,10 +37320,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906198</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>571.2015688936807</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>443.269859483507</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37552,7 +37554,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>706.6463751513871</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37628,22 +37630,22 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>898.8580933463641</v>
       </c>
       <c r="N39" t="n">
-        <v>250.7519823203978</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374934</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374934</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>461.1241687855978</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>377.7345989569213</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>238.7351072494338</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374934</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>620.1241371159053</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>122.2114398442797</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2754069.402716384</v>
+        <v>2753372.741511293</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954496</v>
+        <v>11843801.51954497</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114756</v>
+        <v>612367.9462114749</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>272.9191286396637</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>179.5768964681138</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -870,19 +870,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>232.7403423833642</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>187.4282796334809</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>222.1427029438957</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -910,10 +910,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>193.7237604659992</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>83.82457876590577</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>142.6892461777148</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>127.6603223348121</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1302,16 +1302,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>84.45934730604885</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536213</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396354</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1539,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>138.4605222694416</v>
+        <v>20.90626318887441</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1618,7 +1618,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -1770,16 +1770,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>12.06219323947358</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1846,7 +1846,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>18.38766003735338</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2143,7 +2143,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>104.5688545685936</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399271</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2301,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2478,22 +2478,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5466542907205</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.32857561554587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>75.3650274272169</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2730,10 +2730,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>131.9951201220389</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2955,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2967,10 +2967,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>123.9086344760396</v>
       </c>
       <c r="I31" t="n">
-        <v>46.19803402753018</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>127.3780140126816</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486146</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868327</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E35" t="n">
-        <v>421.7171704536211</v>
+        <v>421.7171704536209</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924936</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864457</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407054</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396359</v>
+        <v>34.54790254396195</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.3236211855911</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095517</v>
       </c>
       <c r="V35" t="n">
-        <v>353.9145207250131</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446584</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249449</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>170.252837489873</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>161.6836051444969</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.5461237886749</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>170.1431564831851</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>142.358305806927</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>98.77088257712668</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969848</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060564</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.9059542963589</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>55.68356583439704</v>
       </c>
       <c r="V37" t="n">
-        <v>274.372971193527</v>
+        <v>278.8943527180513</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.103879789212</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486146</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868327</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E38" t="n">
-        <v>421.7171704536211</v>
+        <v>421.7171704536209</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924936</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864457</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407062</v>
+        <v>294.8896947407054</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396359</v>
+        <v>34.54790254396205</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855911</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095517</v>
       </c>
       <c r="V38" t="n">
-        <v>353.9145207250131</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446584</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249449</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>170.252837489873</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>124.2290557831245</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>142.358305806927</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963589</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146986</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180513</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>272.103879789212</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886528</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.2084156885857</v>
+        <v>224.0793406271553</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486146</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868327</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536209</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924936</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864457</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407054</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.5479025439634</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095517</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026559</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446584</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249449</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>170.252837489873</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>158.8248849358103</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>170.1431564831851</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969848</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060564</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963589</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180513</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.103879789212</v>
       </c>
       <c r="X43" t="n">
-        <v>154.1156291734915</v>
+        <v>240.1382575886528</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271553</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486146</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868327</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536209</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924936</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864457</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407054</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.5479025439634</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095517</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446584</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.2643090249449</v>
       </c>
       <c r="C46" t="n">
-        <v>36.12736168857049</v>
+        <v>170.252837489873</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>170.1431564831851</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5944000087101</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>4.322062388458894</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060564</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040146986</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180513</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>272.103879789212</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886528</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271553</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>860.9393037881885</v>
+        <v>784.5977247459106</v>
       </c>
       <c r="C2" t="n">
-        <v>838.0789778418927</v>
+        <v>761.7373987996148</v>
       </c>
       <c r="D2" t="n">
-        <v>818.826761067297</v>
+        <v>486.061511284803</v>
       </c>
       <c r="E2" t="n">
-        <v>796.8902252555586</v>
+        <v>464.1249754730646</v>
       </c>
       <c r="F2" t="n">
-        <v>371.7660434449588</v>
+        <v>443.0411977028689</v>
       </c>
       <c r="G2" t="n">
-        <v>371.4673850748114</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884626</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231748</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231748</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>517.6410595347463</v>
+        <v>401.305594109213</v>
       </c>
       <c r="L2" t="n">
-        <v>517.6410595347463</v>
+        <v>880.244518351642</v>
       </c>
       <c r="M2" t="n">
-        <v>859.6725812491138</v>
+        <v>880.244518351642</v>
       </c>
       <c r="N2" t="n">
-        <v>859.6725812491138</v>
+        <v>880.244518351642</v>
       </c>
       <c r="O2" t="n">
-        <v>1338.611505491543</v>
+        <v>882.52602598736</v>
       </c>
       <c r="P2" t="n">
-        <v>1817.550429733971</v>
+        <v>1361.464950229789</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733971</v>
+        <v>1817.550429733972</v>
       </c>
       <c r="R2" t="n">
         <v>1935.106764615874</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615874</v>
+        <v>1830.739470489015</v>
       </c>
       <c r="T2" t="n">
-        <v>1714.181193660507</v>
+        <v>1609.813899533648</v>
       </c>
       <c r="U2" t="n">
-        <v>1455.82628425692</v>
+        <v>1609.813899533648</v>
       </c>
       <c r="V2" t="n">
-        <v>1455.82628425692</v>
+        <v>1609.813899533648</v>
       </c>
       <c r="W2" t="n">
-        <v>1059.434934557266</v>
+        <v>1213.422549833995</v>
       </c>
       <c r="X2" t="n">
-        <v>878.0441300440201</v>
+        <v>801.7025510017422</v>
       </c>
       <c r="Y2" t="n">
-        <v>876.7472640393145</v>
+        <v>800.4056849970366</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237727</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412774</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565625</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294997</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
         <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000789</v>
+        <v>92.07822853000791</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231748</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422932</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="J3" t="n">
-        <v>46.14877825422932</v>
+        <v>310.3996245719086</v>
       </c>
       <c r="K3" t="n">
-        <v>525.0877024966582</v>
+        <v>310.3996245719086</v>
       </c>
       <c r="L3" t="n">
-        <v>525.0877024966582</v>
+        <v>310.3996245719086</v>
       </c>
       <c r="M3" t="n">
-        <v>525.0877024966582</v>
+        <v>328.5536830608373</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0877024966582</v>
+        <v>807.4926073032663</v>
       </c>
       <c r="O3" t="n">
-        <v>822.2860546829158</v>
+        <v>1286.431531545695</v>
       </c>
       <c r="P3" t="n">
-        <v>1301.224978925345</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="Q3" t="n">
         <v>1765.370455788124</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.445524390543</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438354</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>958.566484943325</v>
+        <v>448.523941749655</v>
       </c>
       <c r="C4" t="n">
-        <v>786.593921822241</v>
+        <v>448.523941749655</v>
       </c>
       <c r="D4" t="n">
-        <v>786.593921822241</v>
+        <v>448.523941749655</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750945</v>
+        <v>448.523941749655</v>
       </c>
       <c r="F4" t="n">
         <v>448.523941749655</v>
@@ -4485,19 +4485,19 @@
         <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231748</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="J4" t="n">
         <v>96.1934635164755</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223127</v>
+        <v>96.1934635164755</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271611</v>
+        <v>393.4019879271615</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974119</v>
+        <v>784.5877828974124</v>
       </c>
       <c r="N4" t="n">
         <v>1162.079293773448</v>
@@ -4512,28 +4512,28 @@
         <v>1935.106764615874</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303047</v>
+        <v>1888.068151303048</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822182</v>
+        <v>1717.933103822183</v>
       </c>
       <c r="T4" t="n">
-        <v>1482.841848889491</v>
+        <v>1474.593756048082</v>
       </c>
       <c r="U4" t="n">
-        <v>1482.841848889491</v>
+        <v>1194.409307548387</v>
       </c>
       <c r="V4" t="n">
-        <v>1201.13038149752</v>
+        <v>912.6978401564156</v>
       </c>
       <c r="W4" t="n">
-        <v>1201.13038149752</v>
+        <v>637.8454363289286</v>
       </c>
       <c r="X4" t="n">
-        <v>958.566484943325</v>
+        <v>448.523941749655</v>
       </c>
       <c r="Y4" t="n">
-        <v>958.566484943325</v>
+        <v>448.523941749655</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1342.050951843433</v>
+        <v>632.9324701037876</v>
       </c>
       <c r="C5" t="n">
-        <v>915.1502218567327</v>
+        <v>610.0721441574918</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>385.6855755272941</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F5" t="n">
-        <v>448.8372874597989</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4570,19 +4570,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>2059.098288819458</v>
+        <v>572.914647509062</v>
       </c>
       <c r="N5" t="n">
-        <v>2224.911252462377</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P5" t="n">
         <v>2224.911252462377</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058789</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>1966.556343058789</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W5" t="n">
-        <v>1770.875776931517</v>
+        <v>1465.797699232276</v>
       </c>
       <c r="X5" t="n">
-        <v>1359.155778099264</v>
+        <v>1054.077700400023</v>
       </c>
       <c r="Y5" t="n">
-        <v>1357.858912094558</v>
+        <v>648.7404303549137</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>602.6104029955975</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="L6" t="n">
-        <v>1153.275937980036</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="M6" t="n">
-        <v>1153.275937980036</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N6" t="n">
-        <v>1153.275937980036</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O6" t="n">
-        <v>1703.941472964474</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>458.7432593109778</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>374.0719676282447</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D7" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E7" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
         <v>44.49822504924753</v>
@@ -4728,49 +4728,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394889</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002918</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754307</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212358</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109778</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>988.0056192934842</v>
+        <v>2078.856605666331</v>
       </c>
       <c r="C8" t="n">
-        <v>843.8750675988227</v>
+        <v>1651.955875679631</v>
       </c>
       <c r="D8" t="n">
-        <v>824.622850824227</v>
+        <v>1228.663254864631</v>
       </c>
       <c r="E8" t="n">
         <v>802.6863150124886</v>
       </c>
       <c r="F8" t="n">
-        <v>781.6025372422929</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G8" t="n">
         <v>377.2634748317415</v>
@@ -4804,19 +4804,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O8" t="n">
         <v>2107.354917580474</v>
@@ -4846,10 +4846,10 @@
         <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.191253630124</v>
+        <v>2095.961431922162</v>
       </c>
       <c r="Y8" t="n">
-        <v>1407.853983585014</v>
+        <v>2094.664565917457</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>416.2236218818665</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>687.9211111614576</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>1238.586646145896</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>1678.746465514894</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>1678.746465514894</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N9" t="n">
-        <v>1678.746465514894</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O9" t="n">
-        <v>1678.746465514894</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1678.746465514894</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.792035382553</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>517.8194722614689</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>354.5026993882396</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>188.2944935410931</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>188.2944935410931</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1679.085771868272</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1397.3743044763</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1122.521900648813</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>879.9580040946187</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>879.9580040946187</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5023,67 +5023,67 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>1180.414480198223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L11" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M11" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N11" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O11" t="n">
-        <v>3959.47027938737</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>3578.14552899051</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>3578.14552899051</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>3578.14552899051</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>3578.14552899051</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>3578.14552899051</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>4398.937953252929</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.9189991784958</v>
+        <v>1013.622061704626</v>
       </c>
       <c r="C13" t="n">
-        <v>769.9464360574118</v>
+        <v>841.6494985835418</v>
       </c>
       <c r="D13" t="n">
-        <v>606.6296631841825</v>
+        <v>678.3327257103125</v>
       </c>
       <c r="E13" t="n">
-        <v>440.421457337036</v>
+        <v>512.124519863166</v>
       </c>
       <c r="F13" t="n">
-        <v>268.5596831115964</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G13" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>1972.721579934615</v>
+        <v>2044.424642460745</v>
       </c>
       <c r="U13" t="n">
-        <v>1692.53713143492</v>
+        <v>1764.24019396105</v>
       </c>
       <c r="V13" t="n">
-        <v>1410.825664042949</v>
+        <v>1482.528726569079</v>
       </c>
       <c r="W13" t="n">
-        <v>1410.825664042949</v>
+        <v>1482.528726569079</v>
       </c>
       <c r="X13" t="n">
-        <v>1168.261767488754</v>
+        <v>1239.964830014884</v>
       </c>
       <c r="Y13" t="n">
-        <v>941.9189991784958</v>
+        <v>1013.622061704626</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H14" t="n">
         <v>137.1995846623573</v>
@@ -5278,52 +5278,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>1180.414480198223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L14" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M14" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N14" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O14" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P14" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>357.5299206506891</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>357.5299206506891</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>357.5299206506891</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M15" t="n">
-        <v>357.5299206506891</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N15" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>615.9842888225141</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>444.0117257014301</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>280.6949528282008</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>114.4867469810544</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>114.4867469810544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
         <v>102.3027134058285</v>
@@ -5436,10 +5436,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5463,25 +5463,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T16" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>1032.493025844838</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>806.1502575345799</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2398.817321261059</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="N17" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O17" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
@@ -5597,16 +5597,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>184.7102578919605</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>896.9441885421152</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>724.9716254210311</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>724.9716254210311</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>558.7634195738847</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>386.9016453484451</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>220.6446756426772</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5703,22 +5703,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2112.580693338092</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>2112.580693338092</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1830.869225946121</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1556.016822118634</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1313.452925564439</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1087.110157254181</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
         <v>2113.800768076616</v>
@@ -5740,10 +5740,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>1040.608704104281</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1970.233751723557</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2974.519853142615</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="N20" t="n">
-        <v>3950.770911629316</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399954</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="21">
@@ -5822,7 +5822,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
@@ -5831,28 +5831,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M21" t="n">
-        <v>939.4897558901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N21" t="n">
-        <v>939.4897558901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>961.5351989759104</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>789.5626358548263</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>683.9375302299843</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>517.7293243828378</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1712.153331232334</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1430.441863840363</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.441863840363</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1187.877967286168</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>961.5351989759104</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>4025.820723818557</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291427</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>584.2797508659046</v>
+        <v>769.8982080594424</v>
       </c>
       <c r="C25" t="n">
-        <v>412.3071877448206</v>
+        <v>769.8982080594424</v>
       </c>
       <c r="D25" t="n">
-        <v>412.3071877448206</v>
+        <v>606.5814351862131</v>
       </c>
       <c r="E25" t="n">
-        <v>246.0989818976742</v>
+        <v>440.3732293390666</v>
       </c>
       <c r="F25" t="n">
-        <v>246.0989818976742</v>
+        <v>268.511455113627</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y25" t="n">
-        <v>774.4457195779703</v>
+        <v>960.064176771508</v>
       </c>
     </row>
     <row r="26">
@@ -6238,16 +6238,16 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>381.4468456473314</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L27" t="n">
-        <v>381.4468456473314</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6414,22 +6414,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1932.213675861589</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1650.502208469618</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1375.649804642131</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1375.649804642131</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="29">
@@ -6463,16 +6463,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>338.650469582768</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>1054.158777558267</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1983.783825177544</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2988.069926596602</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
         <v>2988.069926596602</v>
@@ -6542,25 +6542,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>825.2669071411556</v>
+        <v>1067.07923602298</v>
       </c>
       <c r="C31" t="n">
-        <v>653.2943440200715</v>
+        <v>895.1066729018962</v>
       </c>
       <c r="D31" t="n">
-        <v>653.2943440200715</v>
+        <v>731.7899000286669</v>
       </c>
       <c r="E31" t="n">
-        <v>487.0861381729251</v>
+        <v>565.5816941815204</v>
       </c>
       <c r="F31" t="n">
-        <v>315.2243639474855</v>
+        <v>393.7199199560808</v>
       </c>
       <c r="G31" t="n">
-        <v>148.9673942417176</v>
+        <v>227.462950250313</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9673942417176</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6651,22 +6651,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U31" t="n">
-        <v>1759.191944545161</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V31" t="n">
-        <v>1759.191944545161</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W31" t="n">
-        <v>1484.339540717674</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X31" t="n">
-        <v>1241.775644163479</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y31" t="n">
-        <v>1015.432875853221</v>
+        <v>1257.245204735046</v>
       </c>
     </row>
     <row r="32">
@@ -6709,19 +6709,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N33" t="n">
-        <v>1158.289251381874</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1822.202732251165</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1540.491264859194</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1540.491264859194</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1411.826604240323</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1185.483835930065</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063313</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076614</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261614</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409472</v>
       </c>
       <c r="F35" t="n">
-        <v>839.407025598874</v>
+        <v>839.407025598872</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883207</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623557</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596597</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747409</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905337</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.57933540952</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291423</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164563</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209197</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805609</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931858</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399953</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354843</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C36" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D36" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E36" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F36" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.9317722156709</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.9317722156709</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.9317722156709</v>
       </c>
       <c r="N36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.9317722156709</v>
       </c>
       <c r="O36" t="n">
-        <v>730.647150085061</v>
+        <v>971.9317722156709</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7058,10 +7058,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y36" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1019.275630082919</v>
+        <v>1019.226866224297</v>
       </c>
       <c r="C37" t="n">
-        <v>847.303066961835</v>
+        <v>847.2543031032129</v>
       </c>
       <c r="D37" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9375302299837</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>517.7293243828374</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>345.8675501573979</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>345.8675501573979</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>202.0712816655524</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7107,40 +7107,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976536</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656299</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578201</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818962</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506136</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.54208002527</v>
       </c>
       <c r="T37" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251171</v>
       </c>
       <c r="U37" t="n">
-        <v>1955.492679006434</v>
+        <v>1765.95670615582</v>
       </c>
       <c r="V37" t="n">
-        <v>1678.348263659437</v>
+        <v>1484.245238763849</v>
       </c>
       <c r="W37" t="n">
-        <v>1678.348263659437</v>
+        <v>1209.392834936362</v>
       </c>
       <c r="X37" t="n">
-        <v>1435.784367105243</v>
+        <v>1209.392834936362</v>
       </c>
       <c r="Y37" t="n">
-        <v>1209.441598794985</v>
+        <v>1209.392834936362</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063313</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076614</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261614</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409472</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988721</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883208</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623558</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>903.7433331113961</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1833.368380730673</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>2837.654482149731</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N38" t="n">
-        <v>3813.905540636432</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O38" t="n">
-        <v>4659.050190787244</v>
+        <v>3833.214576747409</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905337</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.57933540952</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291423</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164563</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209197</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805609</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931858</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399953</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354843</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F39" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.9317722156709</v>
       </c>
       <c r="L39" t="n">
-        <v>939.1015214887346</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>1828.971033901635</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N39" t="n">
-        <v>1828.971033901635</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q39" t="n">
         <v>1828.971033901635</v>
@@ -7295,10 +7295,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>847.4138558574795</v>
+        <v>543.5554397491867</v>
       </c>
       <c r="C40" t="n">
-        <v>675.4412927363954</v>
+        <v>371.5828766281028</v>
       </c>
       <c r="D40" t="n">
-        <v>512.1245198631661</v>
+        <v>246.098981897674</v>
       </c>
       <c r="E40" t="n">
-        <v>512.1245198631661</v>
+        <v>246.098981897674</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>246.098981897674</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>246.098981897674</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7335,49 +7335,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358239</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302447</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100496</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044858</v>
       </c>
       <c r="U40" t="n">
-        <v>1869.241345563992</v>
+        <v>1759.191944545163</v>
       </c>
       <c r="V40" t="n">
-        <v>1587.529878172021</v>
+        <v>1477.480477153192</v>
       </c>
       <c r="W40" t="n">
-        <v>1312.677474344533</v>
+        <v>1202.628073325705</v>
       </c>
       <c r="X40" t="n">
-        <v>1070.113577790339</v>
+        <v>960.0641767715101</v>
       </c>
       <c r="Y40" t="n">
-        <v>1037.579824569545</v>
+        <v>733.7214084612523</v>
       </c>
     </row>
     <row r="41">
@@ -7393,25 +7393,25 @@
         <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988735</v>
       </c>
       <c r="G41" t="n">
         <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7423,40 +7423,40 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596598</v>
       </c>
       <c r="O41" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.21457674741</v>
       </c>
       <c r="P41" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905338</v>
       </c>
       <c r="Q41" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409521</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291424</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164564</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209198</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.48789580561</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931859</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399954</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C42" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D42" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E42" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F42" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H42" t="n">
         <v>102.3027134058285</v>
@@ -7490,28 +7490,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>374.0002026854196</v>
+        <v>374.0002026854195</v>
       </c>
       <c r="K42" t="n">
-        <v>374.0002026854196</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L42" t="n">
-        <v>648.6278400003578</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M42" t="n">
-        <v>648.6278400003578</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N42" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7532,10 +7532,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y42" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1185.483835930065</v>
+        <v>606.5662274551905</v>
       </c>
       <c r="C43" t="n">
-        <v>1013.511272808982</v>
+        <v>434.5936643341066</v>
       </c>
       <c r="D43" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312679</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312679</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7572,49 +7572,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358239</v>
       </c>
       <c r="L43" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302448</v>
       </c>
       <c r="M43" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100496</v>
       </c>
       <c r="N43" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506131</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025266</v>
       </c>
       <c r="T43" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251166</v>
       </c>
       <c r="U43" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251166</v>
       </c>
       <c r="V43" t="n">
-        <v>1757.664925652886</v>
+        <v>1540.491264859196</v>
       </c>
       <c r="W43" t="n">
-        <v>1757.664925652886</v>
+        <v>1265.638861031709</v>
       </c>
       <c r="X43" t="n">
-        <v>1601.992572952389</v>
+        <v>1023.074964477514</v>
       </c>
       <c r="Y43" t="n">
-        <v>1375.649804642131</v>
+        <v>796.7321961672561</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063313</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076614</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409472</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988727</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883213</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>338.650469582768</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>1054.158777558267</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1983.783825177544</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2988.069926596602</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596598</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.21457674741</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905338</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409521</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291424</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164564</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209197</v>
       </c>
       <c r="U44" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805609</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931858</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399953</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354843</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C45" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D45" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E45" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F45" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H45" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854195</v>
       </c>
       <c r="K45" t="n">
-        <v>381.4468456473314</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L45" t="n">
-        <v>475.3442790273841</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M45" t="n">
-        <v>475.3442790273841</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N45" t="n">
-        <v>475.3442790273841</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O45" t="n">
-        <v>1364.825557038856</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P45" t="n">
         <v>1364.825557038856</v>
@@ -7769,10 +7769,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y45" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>742.8905159778161</v>
+        <v>616.7597400424215</v>
       </c>
       <c r="C46" t="n">
-        <v>706.3982314439065</v>
+        <v>444.7871769213376</v>
       </c>
       <c r="D46" t="n">
-        <v>706.3982314439065</v>
+        <v>444.7871769213376</v>
       </c>
       <c r="E46" t="n">
-        <v>540.1900255967601</v>
+        <v>444.7871769213376</v>
       </c>
       <c r="F46" t="n">
-        <v>368.3282513713204</v>
+        <v>272.9254026958981</v>
       </c>
       <c r="G46" t="n">
-        <v>202.0712816655526</v>
+        <v>106.6684329901304</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>106.6684329901304</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
@@ -7809,49 +7809,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358239</v>
       </c>
       <c r="L46" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302448</v>
       </c>
       <c r="M46" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100496</v>
       </c>
       <c r="N46" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O46" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P46" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338093</v>
       </c>
       <c r="T46" t="n">
-        <v>1822.202732251165</v>
+        <v>2112.580693338093</v>
       </c>
       <c r="U46" t="n">
-        <v>1542.018283751469</v>
+        <v>1832.396244838397</v>
       </c>
       <c r="V46" t="n">
-        <v>1260.306816359498</v>
+        <v>1550.684777446427</v>
       </c>
       <c r="W46" t="n">
-        <v>985.454412532011</v>
+        <v>1275.83237361894</v>
       </c>
       <c r="X46" t="n">
-        <v>742.8905159778161</v>
+        <v>1033.268477064745</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.8905159778161</v>
+        <v>806.9257087544871</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487778</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865915</v>
       </c>
       <c r="M2" t="n">
-        <v>382.9176484695</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>521.1676505099927</v>
+        <v>39.69551252341597</v>
       </c>
       <c r="P2" t="n">
         <v>521.3520529641999</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>506.1759249873018</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>41.43421332942772</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675103</v>
       </c>
       <c r="O3" t="n">
-        <v>323.3722454659168</v>
+        <v>506.9485808761908</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587972</v>
+        <v>505.5475323587973</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8139,10 +8139,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L4" t="n">
-        <v>93.31363181979052</v>
+        <v>322.1293906135659</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8218,22 +8218,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>204.9191049629863</v>
       </c>
       <c r="N5" t="n">
-        <v>204.7674648980005</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8294,10 +8294,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>542.3310383704943</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
@@ -8309,13 +8309,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>172.5227428869331</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8376,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>591.9924139104035</v>
@@ -8464,10 +8464,10 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>452.289812307084</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>86.13502881159596</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8528,25 +8528,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>467.1209648647327</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>543.0285850494889</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8555,7 +8555,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,22 +8692,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125397</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>625.4779643536372</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8780,13 +8780,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>969.8870401031046</v>
       </c>
       <c r="O12" t="n">
-        <v>852.2551465529489</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8929,10 +8929,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125397</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>278.4163741766268</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9026,7 +9026,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9166,22 +9166,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055937</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>362.1014486857561</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9245,19 +9245,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>105.6391777587192</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9403,19 +9403,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>617.2823097660786</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055937</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
@@ -9424,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>851.5983435449576</v>
       </c>
       <c r="M21" t="n">
-        <v>23.48893647336718</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,19 +9646,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,25 +9713,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>126.4645803159205</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9886,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>370.4410136063929</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>467.7720854276179</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>268.1550667350203</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,10 +10120,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10190,28 +10190,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>475.2939470053066</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>534.642907502631</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10357,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>517.6546514635598</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>42.21574383418027</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406053</v>
       </c>
       <c r="O35" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10679,16 +10679,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>657.8632399032651</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171366</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>479.0344602783164</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10837,16 +10837,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130211</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,19 +10898,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>921.9548738586921</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
@@ -10922,7 +10922,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>43.1919409183301</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11071,7 +11071,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406062</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11083,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>299.9167405677024</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>977.4089016807933</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>268.1550667350203</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,10 +11305,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>924.1790155406062</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>117.3609790173131</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11390,10 +11390,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>102.4454320269174</v>
+        <v>219.9996911074846</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>152.5322067692366</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -23703,7 +23703,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>123.9706457695738</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>57.11475057590339</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>71.98949189919247</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0.04774571798972715</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.7507650116095</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>86.31857771728009</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>145.3874838926598</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>18.44967133088755</v>
       </c>
       <c r="I31" t="n">
-        <v>52.57284854959661</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>112.7602435759713</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.452035425695407e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>221.6990381803016</v>
       </c>
       <c r="V37" t="n">
-        <v>4.521381524524372</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886528</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271553</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>37.45454936137234</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>170.1431564831851</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087101</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712668</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969848</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060564</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>191.8709249385697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>2.858720208686606</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.5461237886749</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087101</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.358305806927</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712668</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040146986</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>86.02262841516139</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>134.1254758013027</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.5461237886749</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>142.358305806927</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>94.4488201886678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969848</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.9059542963589</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>492838.0160234578</v>
+        <v>492838.0160234579</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>567881.6013108841</v>
+      </c>
+      <c r="C2" t="n">
         <v>567881.6013108839</v>
       </c>
-      <c r="C2" t="n">
-        <v>567881.6013108838</v>
-      </c>
       <c r="D2" t="n">
-        <v>567881.6013108841</v>
+        <v>567881.601310884</v>
       </c>
       <c r="E2" t="n">
         <v>547979.6430590109</v>
       </c>
       <c r="F2" t="n">
+        <v>547979.6430590105</v>
+      </c>
+      <c r="G2" t="n">
+        <v>547979.6430590106</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547979.6430590107</v>
+      </c>
+      <c r="I2" t="n">
+        <v>547979.6430590109</v>
+      </c>
+      <c r="J2" t="n">
         <v>547979.6430590111</v>
-      </c>
-      <c r="G2" t="n">
-        <v>547979.6430590107</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547979.6430590106</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547979.643059011</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547979.6430590109</v>
       </c>
       <c r="K2" t="n">
         <v>547979.643059011</v>
       </c>
       <c r="L2" t="n">
-        <v>547979.643059011</v>
+        <v>547979.6430590112</v>
       </c>
       <c r="M2" t="n">
         <v>547979.6430590107</v>
       </c>
       <c r="N2" t="n">
-        <v>547979.6430590106</v>
+        <v>547979.6430590107</v>
       </c>
       <c r="O2" t="n">
-        <v>547979.6430590111</v>
+        <v>547979.6430590109</v>
       </c>
       <c r="P2" t="n">
         <v>547979.6430590109</v>
@@ -26368,13 +26368,13 @@
         <v>162124.6960695914</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361206</v>
+        <v>23406.83367361202</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802889</v>
+        <v>126577.268580289</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701967</v>
+        <v>18646.60035701964</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551676</v>
+        <v>180063.8714551674</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>187607.6695456099</v>
       </c>
       <c r="C4" t="n">
-        <v>173998.4022791778</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="D4" t="n">
-        <v>173998.4022791778</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="E4" t="n">
-        <v>58064.51385187962</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="F4" t="n">
-        <v>58064.5138518796</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.5138518796</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187959</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="I4" t="n">
         <v>58064.51385187964</v>
@@ -26450,16 +26450,16 @@
         <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
-        <v>58064.51385187959</v>
+        <v>58064.51385187978</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187959</v>
+        <v>58064.51385187978</v>
       </c>
       <c r="O4" t="n">
-        <v>58064.51385187965</v>
+        <v>58064.51385187972</v>
       </c>
       <c r="P4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187972</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216128</v>
+        <v>63041.22282216129</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842964</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842964</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155108.0128735213</v>
+        <v>155108.0128735215</v>
       </c>
       <c r="C6" t="n">
-        <v>303030.1143206658</v>
+        <v>303030.1143206659</v>
       </c>
       <c r="D6" t="n">
-        <v>326436.9479942782</v>
+        <v>326436.947994278</v>
       </c>
       <c r="E6" t="n">
-        <v>196425.710462061</v>
+        <v>196374.6797998767</v>
       </c>
       <c r="F6" t="n">
-        <v>412165.0670187018</v>
+        <v>412114.0363565169</v>
       </c>
       <c r="G6" t="n">
-        <v>412165.0670187015</v>
+        <v>412114.0363565171</v>
       </c>
       <c r="H6" t="n">
-        <v>412165.0670187013</v>
+        <v>412114.0363565172</v>
       </c>
       <c r="I6" t="n">
-        <v>412165.0670187016</v>
+        <v>412114.0363565171</v>
       </c>
       <c r="J6" t="n">
-        <v>285587.7984384126</v>
+        <v>285536.7677762285</v>
       </c>
       <c r="K6" t="n">
-        <v>393518.466661682</v>
+        <v>393467.4359994977</v>
       </c>
       <c r="L6" t="n">
-        <v>412165.0670187016</v>
+        <v>412114.0363565176</v>
       </c>
       <c r="M6" t="n">
-        <v>232101.1955635338</v>
+        <v>232050.1649013496</v>
       </c>
       <c r="N6" t="n">
-        <v>412165.0670187013</v>
+        <v>412114.0363565171</v>
       </c>
       <c r="O6" t="n">
-        <v>412165.0670187018</v>
+        <v>412114.0363565172</v>
       </c>
       <c r="P6" t="n">
-        <v>412165.0670187015</v>
+        <v>412114.0363565172</v>
       </c>
     </row>
   </sheetData>
@@ -26718,16 +26718,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539685</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26804,10 +26804,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -26822,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
     </row>
   </sheetData>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539685</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162563</v>
+        <v>72.45112196162552</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539685</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162563</v>
+        <v>72.45112196162552</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572613</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539685</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162563</v>
+        <v>72.45112196162552</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>146.140565967186</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>228.0259023758164</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27539,16 +27539,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>8.165611912994848</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>52.70997795517204</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27618,10 +27618,10 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>196.916991662954</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27678,13 +27678,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>198.7036757366573</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>86.42825872396737</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -27788,7 +27788,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>279.942476509118</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>279.9424765091181</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>192.9232567086499</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30179,10 +30179,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>5.207860939241603e-12</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30191,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.454652797752011e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1.040531656192129e-13</v>
       </c>
     </row>
   </sheetData>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539685</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="M2" t="n">
-        <v>345.4863855700682</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539685</v>
+        <v>2.304553167391877</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539685</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7766911539685</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>18.33743281709974</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="O3" t="n">
-        <v>300.2003557436946</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539685</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34859,10 +34859,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>71.39487192408929</v>
+        <v>300.2106307178647</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34938,22 +34938,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>167.4878420635545</v>
+      </c>
+      <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>167.4878420635545</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>556.2278131155941</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>150.7519016821045</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>556.2278131155941</v>
@@ -35184,10 +35184,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35248,25 +35248,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>519.9318045371609</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L9" t="n">
-        <v>444.6058781505031</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799168</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>587.9026025434059</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>948.544011889563</v>
       </c>
       <c r="O12" t="n">
-        <v>829.0832568307267</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,10 +35649,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799168</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>257.8052598432935</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.899392706162</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>324.5260868755248</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>83.23994392538583</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>581.5177089712693</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.899392706162</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
@@ -36144,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>829.083256830728</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3921559610391957</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,19 +36366,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36606,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>333.1613907719469</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>444.6753049152899</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>238.7351072494338</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,10 +36840,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.1971664929786</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>512.8720662978023</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641281</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061592</v>
       </c>
       <c r="O35" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>396.862408912308</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37475,10 +37475,10 @@
         <v>395.137166636617</v>
       </c>
       <c r="N37" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404454</v>
       </c>
       <c r="O37" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977406</v>
       </c>
       <c r="P37" t="n">
         <v>293.5345574968697</v>
@@ -37545,10 +37545,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>443.269859483507</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37557,16 +37557,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713569971</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>898.8580933463641</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="R39" t="n">
         <v>82.84778796434657</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127083</v>
       </c>
       <c r="K40" t="n">
-        <v>228.8157587937749</v>
+        <v>228.815758793775</v>
       </c>
       <c r="L40" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115362</v>
       </c>
       <c r="M40" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366171</v>
       </c>
       <c r="N40" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404403</v>
       </c>
       <c r="O40" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977406</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968698</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391536</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061601</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37803,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>956.0658734672517</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127083</v>
       </c>
       <c r="K43" t="n">
-        <v>228.8157587937749</v>
+        <v>228.815758793775</v>
       </c>
       <c r="L43" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115362</v>
       </c>
       <c r="M43" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366171</v>
       </c>
       <c r="N43" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404403</v>
       </c>
       <c r="O43" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977406</v>
       </c>
       <c r="P43" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968698</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391536</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>238.7351072494338</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,10 +38025,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>886.8993927061601</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>94.84589230308353</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127083</v>
       </c>
       <c r="K46" t="n">
-        <v>228.8157587937749</v>
+        <v>228.815758793775</v>
       </c>
       <c r="L46" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115362</v>
       </c>
       <c r="M46" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366171</v>
       </c>
       <c r="N46" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404403</v>
       </c>
       <c r="O46" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977406</v>
       </c>
       <c r="P46" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968698</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391536</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
